--- a/data/financial_statements/sofp/PNC.xlsx
+++ b/data/financial_statements/sofp/PNC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2110 +584,2158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>34363000000</v>
+      </c>
+      <c r="C2">
         <v>46826000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>36986000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>56348000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>82254000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>84321000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>81171000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>93616000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>92190000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>77588000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>56571000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>27479000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>28474000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>24707000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>23778000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>20323000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>16501000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>25048000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>27397000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>33470000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>33844000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>29449000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>27521000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>32880000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>30590000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>34919000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>34428000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>36346000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>34611000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>41494000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>42686000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>39393000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>40344000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>34822000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>25522000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>23124000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>21237000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>15469000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>11570000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>9006000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>356657000000</v>
+      </c>
+      <c r="C3">
         <v>358771000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>344515000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>347753000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>367989000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>371317000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>372372000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>327882000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>330354000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>322903000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>310322000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>289871000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>266658000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>261218000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>259416000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>250610000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>241111000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>246625000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>248996000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>253445000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>254346000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>249717000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>245024000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>244559000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>241338000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>244799000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>243095000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>242661000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>240120000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>245300000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>246924000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>243232000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>244092000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>234431000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>225281000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>219938000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>215496000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>207033000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>201387000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>194977000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4">
         <v>10512000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9563000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>147771000000</v>
+      </c>
+      <c r="C5">
         <v>144581000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>141173000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>140209000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>141142000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>133343000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>134064000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>104641000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>94851000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>96123000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>103436000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>103751000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>92000000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>101208000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>101304000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>96436000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>95595000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>93250000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>92555000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>86570000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>87523000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>86003000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>87250000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>87332000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>86675000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>89119000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>82270000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>82960000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>81115000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>78563000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>71893000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>71291000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>66551000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>65802000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>67185000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>68981000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>70854000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>67563000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>67503000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>70369000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>14193000000</v>
+        <v>10987000000</v>
       </c>
       <c r="C6">
-        <v>13524000000</v>
+        <v>10987000000</v>
       </c>
       <c r="D6">
-        <v>13124000000</v>
+        <v>10916000000</v>
       </c>
       <c r="E6">
-        <v>12734000000</v>
+        <v>10916000000</v>
       </c>
       <c r="F6">
+        <v>10916000000</v>
+      </c>
+      <c r="G6">
         <v>12718000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12751000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10997000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10475000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10346000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>10300000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>10315000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10877000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>10716000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>10848000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>11030000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>11201000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>11354000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>11263000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>11197000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>11005000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>11017000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>11030000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>10970000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>10861000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>10700000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>10654000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>10779000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>10692000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>10977000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>11096000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>10899000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>10947000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>11068000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>11071000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>11189000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>11290000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>11268000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>11228000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>10996000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>41932000000</v>
+        <v>41848000000</v>
       </c>
       <c r="C7">
-        <v>41574000000</v>
+        <v>35523000000</v>
       </c>
       <c r="D7">
-        <v>40160000000</v>
+        <v>35597000000</v>
       </c>
       <c r="E7">
-        <v>35326000000</v>
+        <v>33026000000</v>
       </c>
       <c r="F7">
+        <v>18581000000</v>
+      </c>
+      <c r="G7">
         <v>36137000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>35025000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>30894000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>30999000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>32445000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>34920000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>41556000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>40760000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>35774000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>34193000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>34761000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>34408000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>28851000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>27897000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>27949000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>27894000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>28454000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>28886000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>28083000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>27506000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>24730000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>25316000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>24585000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>26566000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>27285000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>24032000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>25538000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>23482000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>23123000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>23527000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>23315000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>22552000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>22733000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>24297000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>24470000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>200606000000</v>
+      </c>
+      <c r="C8">
         <v>200706000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>196271000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>193493000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>189202000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>182198000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>181840000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>146532000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>136325000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>138914000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>148656000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>155622000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>143637000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>147698000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>146345000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>142227000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>141204000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>133455000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>131715000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>125716000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>126422000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>125474000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>127166000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>126385000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>125042000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>124549000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>118240000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>118324000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>118373000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>116825000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>107021000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>107728000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>100980000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>99993000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>101783000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>103485000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>104696000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>101564000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>103028000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>105835000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>557263000000.0001</v>
+      </c>
+      <c r="C9">
         <v>559477000000.0001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>540786000000.0001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>541246000000.0001</v>
       </c>
-      <c r="E9">
-        <v>557191000000.0001</v>
-      </c>
       <c r="F9">
+        <v>559944000000.0001</v>
+      </c>
+      <c r="G9">
         <v>553515000000.0001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>554212000000.0001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>474414000000.0001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>466679000000.0001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>461817000000.0001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>458978000000.0001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>445493000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>410295000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>408916000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>405761000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>392837000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>382315000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>380080000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>380711000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>379161000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>380768000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>375191000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>372190000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>370944000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>366380000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>369348000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>361335000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>360985000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>358493000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>362125000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>353945000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>350960000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>345072000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>334424000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>327064000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>323423000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>320192000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>308597000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>304415000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>300812000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10">
         <v>1235000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1620000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>2495000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>3202000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>5146000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>6601000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>8505000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>8308000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>8131000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>8156000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>9286000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>10159000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>10703000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>10953000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>436282000000</v>
+      </c>
+      <c r="C11">
         <v>438194000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>440811000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>450197000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>457278000000.0001</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>448902000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>452883000000.0001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>375067000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>365345000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>355079000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>345997000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>305204000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>288540000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>285583000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>273260000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>271221000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>267839000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>264884000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>264885000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>264704000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>265053000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>260735000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>259176000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>260710000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>257164000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>259895000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>249778000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>250359000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>249002000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>244979000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>239704000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>236503000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>232234000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>226304000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>222554000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>222382000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>220931000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>216074000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>212279000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>211620000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>15762000000</v>
+      </c>
+      <c r="C12">
         <v>19245000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>15622000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>14623000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>12741000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>14199000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>11186000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>11931000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>9514000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>10629000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>12345000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>17150000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>11831000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>12220000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>13804000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>12902000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>9002000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9851000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>9340000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>9093000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>8745000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>10147000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>10119000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>8964000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>9355000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>5226000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>5080000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>4850000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>8718000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>5185000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>5031000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>5039000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>5187000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>5090000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>4753000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>4808000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>4690000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>4673000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>4057000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>4181000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>5315000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5539000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>4999000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8998000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3504000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3385000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4550000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>9622000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>13100000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>17400000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>40100000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>452044000000.0001</v>
+      </c>
+      <c r="C14">
         <v>457439000000.0001</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>456433000000.0001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>464820000000.0001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>470019000000.0001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>463101000000.0001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>464069000000.0001</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>386998000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>374859000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>365708000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>358342000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>322354000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>300371000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>297803000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>287064000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>284123000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>276841000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>274735000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>274225000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>273797000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>273798000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>270882000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>269295000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>269674000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>266519000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>266356000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>256478000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>257704000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>257720000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>253366000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>249881000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>248143000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>245926000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>239702000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>235438000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>235346000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>234907000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>230906000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>227039000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>226754000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>54633000000</v>
+        <v>58713000000</v>
       </c>
       <c r="C15">
-        <v>35984000000</v>
+        <v>50718000000</v>
       </c>
       <c r="D15">
-        <v>26571000000</v>
+        <v>31845000000</v>
       </c>
       <c r="E15">
-        <v>30784000000</v>
+        <v>22972000000</v>
       </c>
       <c r="F15">
+        <v>25406000000</v>
+      </c>
+      <c r="G15">
         <v>33471000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>34813000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>33030000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>37195000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>42110000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>47026000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>73399000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>60263000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>54522000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>62476000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>59860000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>52414000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>52476000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>54413000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>53431000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>54299000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>57564000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>56406000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>50183000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>48530000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>50306000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>52951000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>51683000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>49962000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>53461000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>53130000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>50228000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>48263000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>44019000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>40935000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>38650000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>36819000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>30114000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>29161000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>26694000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>682000000</v>
+        <v>16456000000</v>
       </c>
       <c r="C16">
-        <v>681000000</v>
+        <v>18527000000</v>
       </c>
       <c r="D16">
-        <v>639000000</v>
+        <v>14903000000</v>
       </c>
       <c r="E16">
+        <v>13862000000</v>
+      </c>
+      <c r="F16">
+        <v>9580000000</v>
+      </c>
+      <c r="G16">
+        <v>646000000</v>
+      </c>
+      <c r="H16">
+        <v>645000000</v>
+      </c>
+      <c r="I16">
+        <v>507000000</v>
+      </c>
+      <c r="J16">
+        <v>584000000</v>
+      </c>
+      <c r="K16">
+        <v>689000000</v>
+      </c>
+      <c r="L16">
         <v>662000000</v>
       </c>
-      <c r="F16">
-        <v>646000000</v>
-      </c>
-      <c r="G16">
-        <v>645000000</v>
-      </c>
-      <c r="H16">
-        <v>507000000</v>
-      </c>
-      <c r="I16">
-        <v>584000000</v>
-      </c>
-      <c r="J16">
-        <v>689000000</v>
-      </c>
-      <c r="K16">
-        <v>662000000</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
         <v>450000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>318000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>7136000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>6840000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>279000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>5290000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>5767000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>5098000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>4898000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>5086000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>293000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>304000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>5184000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>4477000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>5841000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>5207000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>5270000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>4831000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>9020000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>5022000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>6151000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>4809000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>4708000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>4898000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>4509000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>4429000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>4757000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>6274000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>5286000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>59407000000</v>
+      </c>
+      <c r="C17">
         <v>55315000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>36665000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>27210000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>31446000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>34117000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>35458000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>33537000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>37779000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>42799000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>47688000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>73849000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>60581000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>61658000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>69316000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>60139000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>57704000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>58243000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>59511000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>58329000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>59385000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>57857000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>56710000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>55367000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>53007000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>56147000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>58158000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>56953000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>54793000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>62481000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>58152000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>56379000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>53072000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>48727000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>45833000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>43159000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>41248000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>34871000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>35435000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>31980000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>511451000000.0001</v>
+      </c>
+      <c r="C18">
         <v>512754000000.0001</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>493098000000.0001</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>492030000000.0001</v>
       </c>
-      <c r="E18">
-        <v>501465000000.0001</v>
-      </c>
       <c r="F18">
+        <v>504218000000.0001</v>
+      </c>
+      <c r="G18">
         <v>497218000000.0001</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>499527000000.0001</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>420535000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>412638000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>408507000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>406030000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>396203000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>360952000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>359461000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>356380000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>344262000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>334545000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>332978000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>333736000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>332126000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>333183000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>328739000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>326005000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>325041000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>319526000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>322503000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>314636000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>314657000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>312513000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>315847000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>308033000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>304522000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>298998000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>288429000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>281271000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>278505000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>276155000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>265777000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>262474000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>258734000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>18376000000</v>
+      </c>
+      <c r="C19">
         <v>19810000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>18531000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>17487000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>17457000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>17453000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>15928000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>15879000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>15884000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>15836000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>16284000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>16288000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>16369000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>16297000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>16248000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>16173000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>16277000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>16299000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>16250000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>16227000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>16374000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>16343000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>16326000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>16275000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>16651000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>12703000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>12653000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>12586000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>16197000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>12675000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>12632000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>12561000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>12627000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>12573000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>12506000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>12394000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>12416000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>12310000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>12234000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>12174000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA20">
         <v>3456000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>3455000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>3453000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>3450000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>3449000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>3948000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>3946000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>3945000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>3944000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>3943000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>3941000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>3940000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>3939000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>3591000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>2714000000</v>
@@ -2582,7 +2744,7 @@
         <v>2714000000</v>
       </c>
       <c r="D21">
-        <v>2713000000</v>
+        <v>2714000000</v>
       </c>
       <c r="E21">
         <v>2713000000</v>
@@ -2600,7 +2762,7 @@
         <v>2713000000</v>
       </c>
       <c r="J21">
-        <v>2712000000</v>
+        <v>2713000000</v>
       </c>
       <c r="K21">
         <v>2712000000</v>
@@ -2612,7 +2774,7 @@
         <v>2712000000</v>
       </c>
       <c r="N21">
-        <v>2711000000</v>
+        <v>2712000000</v>
       </c>
       <c r="O21">
         <v>2711000000</v>
@@ -2624,7 +2786,7 @@
         <v>2711000000</v>
       </c>
       <c r="R21">
-        <v>2710000000</v>
+        <v>2711000000</v>
       </c>
       <c r="S21">
         <v>2710000000</v>
@@ -2642,7 +2804,7 @@
         <v>2710000000</v>
       </c>
       <c r="X21">
-        <v>2709000000</v>
+        <v>2710000000</v>
       </c>
       <c r="Y21">
         <v>2709000000</v>
@@ -2654,7 +2816,7 @@
         <v>2709000000</v>
       </c>
       <c r="AB21">
-        <v>2708000000</v>
+        <v>2709000000</v>
       </c>
       <c r="AC21">
         <v>2708000000</v>
@@ -2666,1160 +2828,1190 @@
         <v>2708000000</v>
       </c>
       <c r="AF21">
+        <v>2708000000</v>
+      </c>
+      <c r="AG21">
         <v>2706000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>2705000000</v>
-      </c>
-      <c r="AH21">
-        <v>2703000000</v>
       </c>
       <c r="AI21">
         <v>2703000000</v>
       </c>
       <c r="AJ21">
+        <v>2703000000</v>
+      </c>
+      <c r="AK21">
         <v>2700000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>2698000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>2695000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>2693000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>2690000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>53572000000</v>
+      </c>
+      <c r="C22">
         <v>52777000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>51841000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>51058000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>50228000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>49541000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>48663000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>48113000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>46848000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>45947000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>44986000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>41885000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>42215000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>41413000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>40616000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>39742000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>38919000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>38080000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>37201000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>36266000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>35481000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>33819000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>33133000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>32372000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>31670000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>30958000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>30309000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>29642000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>29043000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>28337000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>27609000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>26882000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>26200000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>25464000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>24755000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>24010000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>23251000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>22561000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>21828000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>20993000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>18716000000</v>
+      </c>
+      <c r="C23">
         <v>18127000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>17076000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>16346000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>15112000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>14527000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>14140000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14146000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>14205000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>14216000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>14128000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>14140000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>12781000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>11838000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>10866000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>10085000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>9454000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>8771000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>8317000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>7535000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>6904000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>6462000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>5987000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>5323000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>5066000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>4765000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>4304000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>3791000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>3368000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>2837000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>2262000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1775000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1430000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>931000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>584000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>382000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>408000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>423000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>453000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>552000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>46723000000</v>
+        <v>45774000000</v>
       </c>
       <c r="C24">
-        <v>47688000000</v>
+        <v>46688000000</v>
       </c>
       <c r="D24">
-        <v>49216000000</v>
+        <v>41648000000</v>
       </c>
       <c r="E24">
-        <v>55726000000</v>
+        <v>44170000000</v>
       </c>
       <c r="F24">
+        <v>50686000000</v>
+      </c>
+      <c r="G24">
         <v>56297000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>54685000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>53879000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>54041000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>53310000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>52948000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>49290000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>49343000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>49455000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>49381000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>48575000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>47770000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>47102000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>46975000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>47035000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>47585000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>46452000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>46185000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>45903000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>46854000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>43389000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>43244000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>42875000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>45980000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>42828000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>42463000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>42490000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>42128000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>42050000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>41849000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>40975000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>40096000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>38880000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>38002000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>38487000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>46723000000</v>
+        <v>45774000000</v>
       </c>
       <c r="C25">
-        <v>47688000000</v>
+        <v>46688000000</v>
       </c>
       <c r="D25">
-        <v>49216000000</v>
+        <v>47652000000</v>
       </c>
       <c r="E25">
-        <v>55726000000</v>
+        <v>49181000000</v>
       </c>
       <c r="F25">
+        <v>55695000000</v>
+      </c>
+      <c r="G25">
         <v>56297000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>54685000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>53879000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>54041000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>53310000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>52948000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>49290000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>49343000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>49455000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>49381000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>48575000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>47770000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>47102000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>46975000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>47035000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>47585000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>46452000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>46185000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>45903000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>46854000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>46845000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>46699000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>46328000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>45980000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>46278000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>45912000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>46438000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>46074000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>45995000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>45793000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>44918000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>44037000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>42820000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>41941000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>42078000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>557263000000.0001</v>
+      </c>
+      <c r="C26">
         <v>559477000000.0001</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>540786000000.0001</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>541246000000.0001</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>557191000000.0001</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>553515000000.0001</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>554212000000.0001</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>474414000000.0001</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>466679000000.0001</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>461817000000.0001</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>458978000000.0001</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>445493000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>410295000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>408916000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>405761000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>392837000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>382315000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>380080000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>380711000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>379161000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>380768000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>375191000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>372190000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>370944000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>366380000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>369348000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>361335000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>360985000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>358493000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>362125000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>353945000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>350960000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>345072000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>334424000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>327064000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>323423000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>320192000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>308597000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>304415000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>300812000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>401000000</v>
+      </c>
+      <c r="C27">
         <v>404000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>411000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>415000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>420000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>423000000</v>
-      </c>
-      <c r="G27">
-        <v>425000000</v>
       </c>
       <c r="H27">
         <v>425000000</v>
       </c>
       <c r="I27">
-        <v>424000000</v>
+        <v>425000000</v>
       </c>
       <c r="J27">
         <v>424000000</v>
       </c>
       <c r="K27">
+        <v>424000000</v>
+      </c>
+      <c r="L27">
         <v>425000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>424000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>434000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>439000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>447000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>452000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>457000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>462000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>465000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>470000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>473000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>476000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>480000000</v>
-      </c>
-      <c r="X27">
-        <v>485000000</v>
       </c>
       <c r="Y27">
         <v>485000000</v>
       </c>
       <c r="Z27">
+        <v>485000000</v>
+      </c>
+      <c r="AA27">
         <v>488000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>493000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>499000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>504000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>510000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>516000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>520000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>523000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>528000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>532000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>534000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>533000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>532000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>531000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>529000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28">
         <v>51000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>36000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>41000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>41000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>41000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>41000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>36000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>86000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>86000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>31402000000</v>
+      </c>
+      <c r="C29">
         <v>32530000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>34164000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>36092000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>42992000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>43579000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>41934000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>42882000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>43566000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>42964000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>42648000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>38975000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>38466000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>38739000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>38533000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>37545000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>36569000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>35748000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>35712000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>35838000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>36580000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>35435000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>35155000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>34933000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>35993000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>36145000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>36045000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>35549000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>35288000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>35301000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>34816000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>35539000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>35127000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>34927000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>34722000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>33729000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>32747000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>31552000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>30713000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>31082000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>13122000000</v>
+        <v>24350000000</v>
       </c>
       <c r="C30">
-        <v>4537000000</v>
+        <v>9207000000</v>
       </c>
       <c r="D30">
-        <v>-24778000000</v>
+        <v>398000000</v>
       </c>
       <c r="E30">
-        <v>-42472000000</v>
+        <v>-28377000000</v>
       </c>
       <c r="F30">
+        <v>-47850000000</v>
+      </c>
+      <c r="G30">
         <v>-47346000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-42973000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-56036000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-45373000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-22378000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>7855000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>86020000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>31789000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>29815000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>38698000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>39537000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>35913000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>27428000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>27016000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>19961000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>20455000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>28115000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>28885000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>17303000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>17940000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>15387000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>18523000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>15337000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>15351000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>11967000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>10444000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>10835000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>7919000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>9197000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>15413000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>15526000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>15582000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>14645000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>17591000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>17688000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>59948000000</v>
+        <v>58713000000</v>
       </c>
       <c r="C31">
-        <v>41523000000</v>
+        <v>56033000000</v>
       </c>
       <c r="D31">
-        <v>31570000000</v>
+        <v>37384000000</v>
       </c>
       <c r="E31">
-        <v>39782000000</v>
+        <v>27971000000</v>
       </c>
       <c r="F31">
+        <v>34404000000</v>
+      </c>
+      <c r="G31">
         <v>36975000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>38198000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>37580000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>46817000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>55210000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>64426000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>113499000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>60263000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>54522000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>62476000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>59860000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>52414000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>52476000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>54413000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>53431000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>54299000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>57564000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>56406000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>50183000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>48530000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>50306000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>52951000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>51683000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>49962000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>53461000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>53130000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>50228000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>48263000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>44019000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>40935000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>38650000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>36819000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>30114000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>29161000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>26694000000</v>
       </c>
     </row>
